--- a/files/submission/submission.xlsx
+++ b/files/submission/submission.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5545" uniqueCount="3015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5551" uniqueCount="3015">
   <si>
     <t>PAPER_ID</t>
   </si>
@@ -737,7 +737,7 @@
     <t>7/13/2021 19:23:59</t>
   </si>
   <si>
-    <t>7/25/2021 22:21:39</t>
+    <t>8/25/2021 14:25:28</t>
   </si>
   <si>
     <t>7/23/2021 19:42:54</t>
@@ -4504,15 +4504,15 @@
     <t>武田</t>
   </si>
   <si>
+    <t>脇田</t>
+  </si>
+  <si>
     <t>窪田</t>
   </si>
   <si>
     <t>増﨑</t>
   </si>
   <si>
-    <t>脇田</t>
-  </si>
-  <si>
     <t>田中</t>
   </si>
   <si>
@@ -4723,15 +4723,15 @@
     <t>玄太郎</t>
   </si>
   <si>
+    <t>建</t>
+  </si>
+  <si>
     <t>佳寛</t>
   </si>
   <si>
     <t>貴</t>
   </si>
   <si>
-    <t>建</t>
-  </si>
-  <si>
     <t>洋介</t>
   </si>
   <si>
@@ -5101,12 +5101,12 @@
     <t>セ２９０３</t>
   </si>
   <si>
+    <t>725-005-0447</t>
+  </si>
+  <si>
     <t>725-500-2995</t>
   </si>
   <si>
-    <t>725-005-0447</t>
-  </si>
-  <si>
     <t>725-305-0048</t>
   </si>
   <si>
@@ -8350,7 +8350,7 @@
     <t>https://drive.google.com/open?id=1QW31OTyZXl14zNmehZANQppoNxnHv2Zq, https://drive.google.com/open?id=1A94hAGkakZWgPIUBstZLWyV4jtsA0gks</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1zMcioIc65am8ludGhFxp-sy2fFkeaqdB, https://drive.google.com/open?id=1cB_XyQ0Y65jV9nOuAsXA06spVVRJQ9VO, https://drive.google.com/open?id=16ZHs_DcQNDxdnyqakGksGhjQ-WIXzf4j</t>
+    <t>https://drive.google.com/open?id=1zMcioIc65am8ludGhFxp-sy2fFkeaqdB, https://drive.google.com/open?id=1cB_XyQ0Y65jV9nOuAsXA06spVVRJQ9VO, https://drive.google.com/open?id=16ZHs_DcQNDxdnyqakGksGhjQ-WIXzf4j, https://drive.google.com/open?id=1icyTfpmC3_O_JNT2FPc0_n68JV-Sqv55</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=13jnSlsOhvudh3W0LdL92t7vaRI0HOD28</t>
@@ -12053,6 +12053,24 @@
       <c r="S18">
         <v>0</v>
       </c>
+      <c r="T18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="U18" t="s">
+        <v>1555</v>
+      </c>
+      <c r="V18" t="s">
+        <v>1297</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1681</v>
+      </c>
       <c r="BV18" t="s">
         <v>1052</v>
       </c>
@@ -12277,10 +12295,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="U20" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="V20" t="s">
         <v>1298</v>
@@ -12292,7 +12310,7 @@
         <v>1451</v>
       </c>
       <c r="Y20" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="BV20" t="s">
         <v>1054</v>
@@ -12390,10 +12408,10 @@
         <v>1456</v>
       </c>
       <c r="T21" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="U21" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="V21" t="s">
         <v>1300</v>
@@ -12533,10 +12551,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="U22" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="V22" t="s">
         <v>1297</v>
@@ -12548,7 +12566,7 @@
         <v>1451</v>
       </c>
       <c r="Y22" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="BV22" t="s">
         <v>1056</v>
@@ -20968,10 +20986,10 @@
         <v>0</v>
       </c>
       <c r="T83" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="U83" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="V83" t="s">
         <v>1297</v>
@@ -20983,7 +21001,7 @@
         <v>1451</v>
       </c>
       <c r="Y83" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="BV83" t="s">
         <v>1110</v>
